--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="243">
   <si>
     <t>Sezione</t>
   </si>
@@ -248,6 +248,24 @@
     <t>datiProdotti</t>
   </si>
   <si>
+    <t>Officiante</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>cognomeOfficiante</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nomeOfficiante</t>
+  </si>
+  <si>
     <t>Delega da altro comune</t>
   </si>
   <si>
@@ -317,9 +335,6 @@
     <t>Unito civilmente 1</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -329,9 +344,6 @@
     <t>73-sexiesdecies,73-terdecies,73-octies,73-nonies,121.1,73-undecies,73-decies,73-duodecies</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -606,6 +618,12 @@
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.segretarioComunale</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
   </si>
   <si>
     <t>Impedimento - Unito civilmente 1</t>
@@ -781,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1740,7 +1758,7 @@
         <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
@@ -1749,7 +1767,7 @@
         <v>70</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1760,10 +1778,10 @@
         <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>70</v>
@@ -1772,7 +1790,7 @@
         <v>81</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -1797,10 +1815,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
@@ -1809,7 +1827,7 @@
         <v>70</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1817,10 +1835,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
@@ -1837,7 +1855,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>88</v>
@@ -1857,19 +1875,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1877,16 +1895,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>93</v>
@@ -1897,19 +1915,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1917,19 +1935,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1937,19 +1955,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1957,19 +1975,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1977,39 +1995,39 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2017,39 +2035,39 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -2057,99 +2075,99 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2157,39 +2175,39 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2197,39 +2215,39 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2237,59 +2255,59 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2297,39 +2315,39 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2337,19 +2355,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2357,39 +2375,39 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2397,39 +2415,39 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
@@ -2437,19 +2455,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2457,79 +2475,79 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2537,59 +2555,59 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2597,39 +2615,39 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2637,39 +2655,39 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2677,59 +2695,59 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2737,39 +2755,39 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2777,19 +2795,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2797,39 +2815,39 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2837,39 +2855,39 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>17</v>
@@ -2877,19 +2895,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2897,119 +2915,119 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>17</v>
@@ -3017,39 +3035,39 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>17</v>
@@ -3057,259 +3075,259 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>17</v>
@@ -3317,39 +3335,39 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>17</v>
@@ -3357,19 +3375,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>17</v>
@@ -3377,19 +3395,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>17</v>
@@ -3397,19 +3415,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>17</v>
@@ -3417,19 +3435,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>17</v>
@@ -3437,19 +3455,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>17</v>
@@ -3457,39 +3475,39 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>17</v>
@@ -3497,259 +3515,259 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>17</v>
@@ -3757,39 +3775,39 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>17</v>
@@ -3797,19 +3815,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>17</v>
@@ -3817,19 +3835,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>17</v>
@@ -3837,19 +3855,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>17</v>
@@ -3857,19 +3875,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>17</v>
@@ -3877,19 +3895,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>17</v>
@@ -3897,39 +3915,39 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>17</v>
@@ -3937,259 +3955,259 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>17</v>
@@ -4197,39 +4215,39 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>17</v>
@@ -4237,19 +4255,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>17</v>
@@ -4257,19 +4275,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>17</v>
@@ -4277,19 +4295,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>17</v>
@@ -4297,19 +4315,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>17</v>
@@ -4317,19 +4335,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>17</v>
@@ -4337,39 +4355,39 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>17</v>
@@ -4377,259 +4395,259 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>17</v>
@@ -4637,39 +4655,39 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>17</v>
@@ -4677,19 +4695,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>17</v>
@@ -4697,79 +4715,79 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4777,19 +4795,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4797,19 +4815,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4817,19 +4835,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4837,19 +4855,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4857,19 +4875,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C204" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4877,19 +4895,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4897,19 +4915,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4917,19 +4935,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4937,19 +4955,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4957,19 +4975,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -4977,19 +4995,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -4997,19 +5015,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5017,19 +5035,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5037,19 +5055,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5057,19 +5075,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5077,19 +5095,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5097,19 +5115,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5117,39 +5135,39 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E218" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5157,19 +5175,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E219" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5177,39 +5195,39 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5217,19 +5235,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5237,19 +5255,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5257,19 +5275,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5277,19 +5295,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5297,19 +5315,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5317,19 +5335,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5337,19 +5355,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5357,19 +5375,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5377,19 +5395,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5397,19 +5415,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5417,19 +5435,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5437,19 +5455,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5457,19 +5475,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5477,19 +5495,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5497,19 +5515,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5517,19 +5535,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5537,19 +5555,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5557,19 +5575,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5577,19 +5595,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5597,19 +5615,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5617,19 +5635,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5637,19 +5655,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5657,19 +5675,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5677,19 +5695,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5697,19 +5715,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5717,19 +5735,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5737,19 +5755,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5757,19 +5775,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5777,19 +5795,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -5797,19 +5815,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5817,19 +5835,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5837,39 +5855,39 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5877,10 +5895,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>11</v>
@@ -5889,67 +5907,67 @@
         <v>199</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -5957,39 +5975,39 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -5997,79 +6015,79 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6077,79 +6095,79 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6157,219 +6175,219 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6377,39 +6395,39 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6417,39 +6435,39 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6457,39 +6475,39 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6497,39 +6515,39 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6537,199 +6555,199 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E294" s="2" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F295" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6737,30 +6755,30 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
@@ -6769,7 +6787,7 @@
         <v>70</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6777,39 +6795,39 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6817,10 +6835,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
@@ -6829,7 +6847,7 @@
         <v>70</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -6837,19 +6855,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -6857,19 +6875,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -6877,10 +6895,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -6889,9 +6907,89 @@
         <v>70</v>
       </c>
       <c r="E305" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F305" s="2" t="s">
+      <c r="F306" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F309" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="249">
   <si>
     <t>Sezione</t>
   </si>
@@ -741,6 +741,24 @@
   </si>
   <si>
     <t>soggettoImpedimentoCivile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -799,7 +817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6993,6 +7011,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -6999,7 +6999,7 @@
         <v>241</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>70</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="239">
   <si>
     <t>Sezione</t>
   </si>
@@ -545,18 +545,6 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Impedimento - Difetto di età</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.autorizzazioneDifettoEta</t>
-  </si>
-  <si>
-    <t>Impedimento - Parentela</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.autorizzazioneParentela</t>
-  </si>
-  <si>
     <t>Legge regime patrimoniale</t>
   </si>
   <si>
@@ -566,6 +554,21 @@
     <t>legge</t>
   </si>
   <si>
+    <t>Impedimento Generico</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
+  </si>
+  <si>
+    <t>Motivazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico</t>
+  </si>
+  <si>
+    <t>motivazione</t>
+  </si>
+  <si>
     <t>Regime patrimoniale - Atto Notarile</t>
   </si>
   <si>
@@ -593,27 +596,6 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Regime patrimoniale - Generalità assistente legale minori</t>
-  </si>
-  <si>
-    <t>Presenza minori</t>
-  </si>
-  <si>
-    <t>presenzaMinori</t>
-  </si>
-  <si>
-    <t>Assistenza minori</t>
-  </si>
-  <si>
-    <t>assistenzaMinori</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.assistenteLegale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.nominaAssistenteLegale</t>
-  </si>
-  <si>
     <t>Segretario comunale</t>
   </si>
   <si>
@@ -632,15 +614,9 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposo.certificato</t>
   </si>
   <si>
-    <t>Motivazione</t>
-  </si>
-  <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposo</t>
   </si>
   <si>
-    <t>motivazione</t>
-  </si>
-  <si>
     <t>Impedimento - Unito civilmente 2</t>
   </si>
   <si>
@@ -713,16 +689,10 @@
     <t>estintaOpposizione</t>
   </si>
   <si>
-    <t>Difetto di età</t>
-  </si>
-  <si>
-    <t>difettoEta</t>
-  </si>
-  <si>
-    <t>Parentela (ovvero: affinità; ovvero: affiliazione)</t>
-  </si>
-  <si>
-    <t>impedimentoParentela</t>
+    <t>Impedimento generico</t>
+  </si>
+  <si>
+    <t>impedimentoGenerico</t>
   </si>
   <si>
     <t>Scelta del regime patrimoniale</t>
@@ -817,16 +787,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.7734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="81.27734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="69.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
   </cols>
@@ -4808,7 +4778,7 @@
         <v>164</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
@@ -4828,7 +4798,7 @@
         <v>166</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201">
@@ -4848,7 +4818,7 @@
         <v>168</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202">
@@ -4936,7 +4906,7 @@
         <v>177</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
@@ -4945,87 +4915,87 @@
         <v>178</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5033,19 +5003,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5053,19 +5023,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5073,19 +5043,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5093,39 +5063,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5133,19 +5103,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5153,19 +5123,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5173,19 +5143,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5193,59 +5163,59 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5253,39 +5223,39 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5293,39 +5263,39 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5333,19 +5303,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5353,19 +5323,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5373,19 +5343,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5393,59 +5363,59 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5453,39 +5423,39 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5493,19 +5463,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5513,19 +5483,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5533,19 +5503,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5553,119 +5523,119 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5673,39 +5643,39 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5713,39 +5683,39 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5753,39 +5723,39 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5793,39 +5763,39 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -5833,39 +5803,39 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5873,39 +5843,39 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5913,82 +5883,82 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="259">
@@ -5996,7 +5966,7 @@
         <v>204</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>11</v>
@@ -6005,27 +5975,27 @@
         <v>205</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6033,39 +6003,39 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6073,39 +6043,39 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6113,19 +6083,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6133,59 +6103,59 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6193,39 +6163,39 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6233,19 +6203,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6253,19 +6223,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6273,781 +6243,21 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F311" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="253">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -479,24 +485,36 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+  </si>
+  <si>
     <t>Testimone 2</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+  </si>
+  <si>
     <t>Testimone 3</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+  </si>
+  <si>
     <t>Testimone 4</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone4</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
+  </si>
+  <si>
     <t>Opposizione - Sentenza di rigetto</t>
   </si>
   <si>
@@ -509,6 +527,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.rigettoOpposizione,=,false}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -554,12 +575,18 @@
     <t>legge</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3}</t>
+  </si>
+  <si>
     <t>Impedimento Generico</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.impedimentoGenerico,=,0}</t>
+  </si>
+  <si>
     <t>Motivazione</t>
   </si>
   <si>
@@ -578,6 +605,9 @@
     <t>nomeNotaio</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false}</t>
+  </si>
+  <si>
     <t>Cognome Notaio</t>
   </si>
   <si>
@@ -614,6 +644,9 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposo.certificato</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2 }</t>
+  </si>
+  <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposo</t>
   </si>
   <si>
@@ -623,6 +656,9 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposa.certificato</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,1}</t>
+  </si>
+  <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposa</t>
   </si>
   <si>
@@ -635,6 +671,9 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
+  </si>
+  <si>
     <t>195,196</t>
   </si>
   <si>
@@ -723,6 +762,9 @@
   </si>
   <si>
     <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1}</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -787,7 +829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -799,6 +841,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="66.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -820,565 +863,652 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1400,4865 +1530,5597 @@
       <c r="F30" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C212" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E215" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E216" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E217" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E218" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>206</v>
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>206</v>
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>206</v>
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -644,7 +644,7 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposo.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2 }</t>
+    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2}</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposo</t>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="254">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,106 +32,109 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Certificato della richiesta di costituzione 1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Certificato della richiesta di costituzione 2</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Rigetto del Tribunale all'opposizione</t>
+  </si>
+  <si>
+    <t>Ordinanza che dichiara estinto il giudizio di opposizione</t>
+  </si>
+  <si>
+    <t>Decreto del tribunale per autorizzazione nonostante impedimento di età</t>
+  </si>
+  <si>
+    <t>Decreto del tribunale per autorizzazione nonostante impedimento di affinità o affiliazione</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121.1</t>
+  </si>
+  <si>
+    <t>73-bis</t>
+  </si>
+  <si>
+    <t>73-ter</t>
+  </si>
+  <si>
+    <t>73-quater</t>
+  </si>
+  <si>
+    <t>73-sexies</t>
+  </si>
+  <si>
+    <t>73-septies</t>
+  </si>
+  <si>
+    <t>73-octies</t>
+  </si>
+  <si>
+    <t>73-nonies</t>
+  </si>
+  <si>
+    <t>73-decies</t>
+  </si>
+  <si>
+    <t>73-undecies</t>
+  </si>
+  <si>
+    <t>73-duodecies</t>
+  </si>
+  <si>
+    <t>73-terdecies</t>
+  </si>
+  <si>
+    <t>73-quaterdecies</t>
+  </si>
+  <si>
+    <t>73-quinquiesdecies</t>
+  </si>
+  <si>
+    <t>73-sexiesdecies</t>
+  </si>
+  <si>
+    <t>73-septiesdecies</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Certificato della richiesta di costituzione 1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Certificato della richiesta di costituzione 2</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Rigetto del Tribunale all'opposizione</t>
-  </si>
-  <si>
-    <t>Ordinanza che dichiara estinto il giudizio di opposizione</t>
-  </si>
-  <si>
-    <t>Decreto del tribunale per autorizzazione nonostante impedimento di età</t>
-  </si>
-  <si>
-    <t>Decreto del tribunale per autorizzazione nonostante impedimento di affinità o affiliazione</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121.1</t>
-  </si>
-  <si>
-    <t>73-bis</t>
-  </si>
-  <si>
-    <t>73-ter</t>
-  </si>
-  <si>
-    <t>73-quater</t>
-  </si>
-  <si>
-    <t>73-sexies</t>
-  </si>
-  <si>
-    <t>73-septies</t>
-  </si>
-  <si>
-    <t>73-octies</t>
-  </si>
-  <si>
-    <t>73-nonies</t>
-  </si>
-  <si>
-    <t>73-decies</t>
-  </si>
-  <si>
-    <t>73-undecies</t>
-  </si>
-  <si>
-    <t>73-duodecies</t>
-  </si>
-  <si>
-    <t>73-terdecies</t>
-  </si>
-  <si>
-    <t>73-quaterdecies</t>
-  </si>
-  <si>
-    <t>73-quinquiesdecies</t>
-  </si>
-  <si>
-    <t>73-sexiesdecies</t>
-  </si>
-  <si>
-    <t>73-septiesdecies</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -1531,5596 +1534,5596 @@
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F245" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F253" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F256" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -488,7 +488,7 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
     <t>Testimone 2</t>
@@ -497,7 +497,7 @@
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2</t>
   </si>
   <si>
     <t>Testimone 3</t>
@@ -506,7 +506,7 @@
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3</t>
   </si>
   <si>
     <t>Testimone 4</t>
@@ -515,7 +515,7 @@
     <t>evento.datiEventoUnioneCivile.testimone4</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4</t>
   </si>
   <si>
     <t>Opposizione - Sentenza di rigetto</t>
@@ -530,7 +530,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.rigettoOpposizione,=,false}</t>
+    <t>evento.datiEventoUnioneCivile.rigettoOpposizione,=,false</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -578,7 +578,7 @@
     <t>legge</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3</t>
   </si>
   <si>
     <t>Impedimento Generico</t>
@@ -587,7 +587,7 @@
     <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.impedimentoGenerico,=,0}</t>
+    <t>evento.datiEventoUnioneCivile.impedimentoGenerico,=,0</t>
   </si>
   <si>
     <t>Motivazione</t>
@@ -608,7 +608,7 @@
     <t>nomeNotaio</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false</t>
   </si>
   <si>
     <t>Cognome Notaio</t>
@@ -647,7 +647,7 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposo.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2}</t>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposo</t>
@@ -659,7 +659,7 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposa.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,1}</t>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,1</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposa</t>
@@ -674,7 +674,7 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>195,196</t>
@@ -767,7 +767,7 @@
     <t>tipoAnnotazione</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -844,7 +844,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="66.2421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="64.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="256">
   <si>
     <t>Sezione</t>
   </si>
@@ -768,6 +768,12 @@
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -832,7 +838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7126,6 +7132,29 @@
         <v>251</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="256">
   <si>
     <t>Sezione</t>
   </si>
@@ -260,19 +260,145 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare l’unione civile</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>cognomeOfficiante</t>
+    <t>evento.datiEventoUnioneCivile.officianteEvento</t>
+  </si>
+  <si>
+    <t>cognome</t>
   </si>
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>nomeOfficiante</t>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Delega da altro comune</t>
@@ -347,133 +473,7 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
     <t>73-sexiesdecies,73-terdecies,73-octies,73-nonies,121.1,73-undecies,73-decies,73-duodecies</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -838,7 +838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1939,7 +1939,7 @@
         <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1948,7 +1948,7 @@
         <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1962,19 @@
         <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>45</v>
@@ -1985,16 +1985,16 @@
         <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2005,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2028,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2051,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2074,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2097,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2120,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2143,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2166,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2189,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2212,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2235,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2258,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2281,22 +2281,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>45</v>
@@ -2304,19 +2304,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2327,22 +2327,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>45</v>
@@ -2350,22 +2350,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>45</v>
@@ -2373,22 +2373,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>45</v>
@@ -2396,19 +2396,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2419,22 +2419,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>45</v>
@@ -2442,19 +2442,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2465,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2488,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2511,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2534,22 +2534,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>45</v>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2580,22 +2580,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>45</v>
@@ -2603,19 +2603,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2626,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2649,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2672,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2695,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2718,22 +2718,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>45</v>
@@ -2741,22 +2741,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>45</v>
@@ -2764,22 +2764,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>45</v>
@@ -2787,22 +2787,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>45</v>
@@ -2810,22 +2810,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>45</v>
@@ -2833,22 +2833,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>45</v>
@@ -2856,19 +2856,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2879,22 +2879,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>45</v>
@@ -2902,19 +2902,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2925,22 +2925,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>45</v>
@@ -2948,19 +2948,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2971,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2994,22 +2994,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>45</v>
@@ -3017,19 +3017,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3040,19 +3040,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>18</v>
@@ -3063,19 +3063,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3086,22 +3086,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>45</v>
@@ -3109,19 +3109,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3132,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3155,19 +3155,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3178,22 +3178,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>45</v>
@@ -3201,19 +3201,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3224,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
@@ -3247,22 +3247,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>45</v>
@@ -3270,22 +3270,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>45</v>
@@ -3293,22 +3293,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>45</v>
@@ -3316,19 +3316,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3342,19 +3342,19 @@
         <v>154</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>45</v>
@@ -3365,7 +3365,7 @@
         <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3374,7 +3374,7 @@
         <v>155</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3385,462 +3385,462 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131">
@@ -3848,19 +3848,19 @@
         <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>158</v>
@@ -3871,7 +3871,7 @@
         <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3880,7 +3880,7 @@
         <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3891,462 +3891,462 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153">
@@ -4354,19 +4354,19 @@
         <v>159</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>161</v>
@@ -4377,7 +4377,7 @@
         <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4386,7 +4386,7 @@
         <v>160</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4397,462 +4397,462 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
@@ -4860,19 +4860,19 @@
         <v>162</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>164</v>
@@ -4883,7 +4883,7 @@
         <v>162</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4892,7 +4892,7 @@
         <v>163</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4903,462 +4903,462 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197">
@@ -5366,19 +5366,19 @@
         <v>165</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>167</v>
@@ -5389,7 +5389,7 @@
         <v>165</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5398,7 +5398,7 @@
         <v>166</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5409,1359 +5409,1359 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="258">
@@ -6769,19 +6769,19 @@
         <v>217</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>220</v>
@@ -6792,7 +6792,7 @@
         <v>217</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6801,7 +6801,7 @@
         <v>218</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
@@ -6812,346 +6812,806 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B292" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="2" t="s">
+      <c r="C294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E274" s="2" t="s">
+      <c r="E294" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F274" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G274" s="2" t="s">
+      <c r="F294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="2" t="s">
         <v>251</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="258">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -838,7 +844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2402,7 +2408,7 @@
         <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>85</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2488,10 +2494,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2500,7 +2506,7 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2511,10 +2517,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2534,7 +2540,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>135</v>
@@ -2557,7 +2563,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>137</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>139</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2695,16 +2701,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>148</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2741,22 +2747,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>45</v>
@@ -2764,22 +2770,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>45</v>
@@ -2787,22 +2793,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>45</v>
@@ -2810,16 +2816,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>148</v>
@@ -2836,7 +2842,7 @@
         <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -2845,10 +2851,10 @@
         <v>152</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>45</v>
@@ -2856,22 +2862,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>45</v>
@@ -2879,22 +2885,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>45</v>
@@ -2902,22 +2908,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>45</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2954,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2994,22 +3000,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>45</v>
@@ -3017,22 +3023,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>45</v>
@@ -3040,22 +3046,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>45</v>
@@ -3063,22 +3069,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>45</v>
@@ -3086,22 +3092,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>45</v>
@@ -3109,19 +3115,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3138,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3155,19 +3161,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3178,22 +3184,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>45</v>
@@ -3201,19 +3207,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3230,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
@@ -3247,22 +3253,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>45</v>
@@ -3270,22 +3276,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>45</v>
@@ -3293,22 +3299,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>45</v>
@@ -3316,19 +3322,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3339,22 +3345,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>45</v>
@@ -3362,19 +3368,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3385,22 +3391,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>45</v>
@@ -3408,19 +3414,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3431,22 +3437,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>45</v>
@@ -3454,19 +3460,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3477,19 +3483,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3500,22 +3506,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>45</v>
@@ -3523,19 +3529,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3546,19 +3552,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>18</v>
@@ -3569,19 +3575,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3592,22 +3598,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>45</v>
@@ -3615,22 +3621,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>45</v>
@@ -3638,19 +3644,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3661,19 +3667,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3684,22 +3690,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>45</v>
@@ -3707,19 +3713,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3730,22 +3736,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>45</v>
@@ -3753,19 +3759,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>18</v>
@@ -3776,19 +3782,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3799,22 +3805,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>45</v>
@@ -3822,22 +3828,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>45</v>
@@ -3848,22 +3854,22 @@
         <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
@@ -3871,7 +3877,7 @@
         <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3880,13 +3886,13 @@
         <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133">
@@ -3894,2675 +3900,2675 @@
         <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="E200" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="E202" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E220" s="2" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E221" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E223" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E224" s="2" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E225" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E228" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="F233" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="E234" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C248" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>12</v>
@@ -6571,159 +6577,159 @@
         <v>212</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G251" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
@@ -6732,21 +6738,21 @@
         <v>214</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>12</v>
@@ -6755,159 +6761,159 @@
         <v>216</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>12</v>
@@ -6916,550 +6922,550 @@
         <v>218</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>221</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G281" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G283" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G284" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -7468,7 +7474,7 @@
         <v>73</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7479,22 +7485,22 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>45</v>
@@ -7502,19 +7508,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7525,22 +7531,22 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>45</v>
@@ -7548,71 +7554,255 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="C299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="2" t="s">
+      <c r="C301" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E294" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G294" s="2" t="s">
+      <c r="B302" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2" t="s">
         <v>251</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -4179,7 +4179,7 @@
         <v>107</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>159</v>
@@ -4202,7 +4202,7 @@
         <v>109</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>159</v>
@@ -4211,7 +4211,7 @@
         <v>110</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>160</v>
@@ -4708,7 +4708,7 @@
         <v>107</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>162</v>
@@ -4731,7 +4731,7 @@
         <v>109</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>162</v>
@@ -4740,7 +4740,7 @@
         <v>110</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>163</v>
@@ -5237,7 +5237,7 @@
         <v>107</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>165</v>
@@ -5260,7 +5260,7 @@
         <v>109</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>165</v>
@@ -5269,7 +5269,7 @@
         <v>110</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>166</v>
@@ -5766,7 +5766,7 @@
         <v>107</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>168</v>
@@ -5789,7 +5789,7 @@
         <v>109</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>168</v>
@@ -5798,7 +5798,7 @@
         <v>110</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>169</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="259">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 1</t>
+    <t>Verbale di richiesta dell'unione civile 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 2</t>
+    <t>Verbale di richiesta dell'unione civile 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -680,10 +680,13 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -856,7 +859,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="64.85546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7442,7 +7445,7 @@
         <v>219</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -7462,10 +7465,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -7474,7 +7477,7 @@
         <v>73</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7485,10 +7488,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
@@ -7497,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>29</v>
@@ -7508,10 +7511,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -7520,7 +7523,7 @@
         <v>73</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7531,10 +7534,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
@@ -7543,7 +7546,7 @@
         <v>73</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>29</v>
@@ -7554,10 +7557,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -7566,7 +7569,7 @@
         <v>43</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7577,10 +7580,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -7589,7 +7592,7 @@
         <v>73</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7600,10 +7603,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -7612,7 +7615,7 @@
         <v>73</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
@@ -7623,10 +7626,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -7635,7 +7638,7 @@
         <v>73</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
@@ -7646,10 +7649,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -7658,7 +7661,7 @@
         <v>73</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
@@ -7669,10 +7672,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -7681,7 +7684,7 @@
         <v>188</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
@@ -7692,10 +7695,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -7704,7 +7707,7 @@
         <v>188</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
@@ -7715,10 +7718,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -7727,7 +7730,7 @@
         <v>73</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
@@ -7738,71 +7741,71 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="258">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Verbale di richiesta dell'unione civile 1</t>
+    <t>Certificato della richiesta di costituzione 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Verbale di richiesta dell'unione civile 2</t>
+    <t>Certificato della richiesta di costituzione 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -684,9 +684,6 @@
   </si>
   <si>
     <t>195,196</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -7445,7 +7442,7 @@
         <v>219</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -7465,10 +7462,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -7477,7 +7474,7 @@
         <v>73</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7488,10 +7485,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
@@ -7500,7 +7497,7 @@
         <v>73</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>29</v>
@@ -7511,10 +7508,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -7523,7 +7520,7 @@
         <v>73</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7534,10 +7531,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
@@ -7546,7 +7543,7 @@
         <v>73</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>29</v>
@@ -7557,10 +7554,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -7569,7 +7566,7 @@
         <v>43</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7580,10 +7577,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -7592,7 +7589,7 @@
         <v>73</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7603,10 +7600,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -7615,7 +7612,7 @@
         <v>73</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
@@ -7626,10 +7623,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -7638,7 +7635,7 @@
         <v>73</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
@@ -7649,10 +7646,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -7661,7 +7658,7 @@
         <v>73</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
@@ -7672,10 +7669,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -7684,7 +7681,7 @@
         <v>188</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
@@ -7695,10 +7692,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -7707,7 +7704,7 @@
         <v>188</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
@@ -7718,10 +7715,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -7730,7 +7727,7 @@
         <v>73</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
@@ -7741,71 +7738,71 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="C300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D300" s="2" t="s">
+      <c r="E300" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E300" s="2" t="s">
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="259">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 1</t>
+    <t>Verbale di richiesta dell'unione civile 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 2</t>
+    <t>Verbale di richiesta dell'unione civile 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -7442,7 +7445,7 @@
         <v>219</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -7462,10 +7465,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -7474,7 +7477,7 @@
         <v>73</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7485,10 +7488,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
@@ -7497,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>29</v>
@@ -7508,10 +7511,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -7520,7 +7523,7 @@
         <v>73</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7531,10 +7534,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
@@ -7543,7 +7546,7 @@
         <v>73</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>29</v>
@@ -7554,10 +7557,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -7566,7 +7569,7 @@
         <v>43</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7577,10 +7580,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -7589,7 +7592,7 @@
         <v>73</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7600,10 +7603,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -7612,7 +7615,7 @@
         <v>73</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
@@ -7623,10 +7626,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -7635,7 +7638,7 @@
         <v>73</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
@@ -7646,10 +7649,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -7658,7 +7661,7 @@
         <v>73</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
@@ -7669,10 +7672,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -7681,7 +7684,7 @@
         <v>188</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
@@ -7692,10 +7695,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -7704,7 +7707,7 @@
         <v>188</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
@@ -7715,10 +7718,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
@@ -7727,7 +7730,7 @@
         <v>73</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
@@ -7738,71 +7741,71 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="267">
   <si>
     <t>Sezione</t>
   </si>
@@ -480,6 +480,30 @@
   </si>
   <si>
     <t>73-sexiesdecies,73-terdecies,73-octies,73-nonies,121.1,73-undecies,73-decies,73-duodecies</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -847,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3394,22 +3418,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>45</v>
@@ -3417,22 +3441,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>45</v>
@@ -3440,22 +3464,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>45</v>
@@ -3463,22 +3487,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>45</v>
@@ -3486,22 +3510,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>45</v>
@@ -3509,19 +3533,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3532,22 +3556,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>45</v>
@@ -3555,22 +3579,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>45</v>
@@ -3578,19 +3602,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3601,22 +3625,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>45</v>
@@ -3624,22 +3648,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>45</v>
@@ -3647,22 +3671,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>45</v>
@@ -3670,19 +3694,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3693,22 +3717,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>45</v>
@@ -3716,22 +3740,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>45</v>
@@ -3739,19 +3763,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3762,22 +3786,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>45</v>
@@ -3785,19 +3809,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3808,22 +3832,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>45</v>
@@ -3831,22 +3855,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>45</v>
@@ -3854,22 +3878,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>45</v>
@@ -3877,19 +3901,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3900,22 +3924,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>45</v>
@@ -3923,3736 +3947,3736 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E238" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E289" s="2" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G290" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -7661,7 +7685,7 @@
         <v>73</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
@@ -7672,22 +7696,22 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>45</v>
@@ -7695,19 +7719,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
@@ -7718,22 +7742,22 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>45</v>
@@ -7741,71 +7765,255 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="C304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E307" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E302" s="2" t="s">
+      <c r="F307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F302" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>254</v>
+      <c r="B308" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>154</v>
@@ -2950,7 +2950,7 @@
         <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>45</v>
@@ -3562,7 +3562,7 @@
         <v>89</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>165</v>
@@ -3571,7 +3571,7 @@
         <v>90</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>45</v>
@@ -4183,7 +4183,7 @@
         <v>89</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>167</v>
@@ -4192,7 +4192,7 @@
         <v>90</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>168</v>
@@ -4712,7 +4712,7 @@
         <v>89</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>170</v>
@@ -4721,7 +4721,7 @@
         <v>90</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>171</v>
@@ -5241,7 +5241,7 @@
         <v>89</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>173</v>
@@ -5250,7 +5250,7 @@
         <v>90</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>174</v>
@@ -5770,7 +5770,7 @@
         <v>89</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>176</v>
@@ -5779,7 +5779,7 @@
         <v>90</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>177</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="278">
   <si>
     <t>Sezione</t>
   </si>
@@ -281,6 +281,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -335,13 +341,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -407,7 +413,19 @@
     <t>flagFirmatario</t>
   </si>
   <si>
-    <t>Delega da altro comune</t>
+    <t>Delega da altro comune o consolato</t>
+  </si>
+  <si>
+    <t>Stato delegante</t>
+  </si>
+  <si>
+    <t>idNazioneDelegante</t>
+  </si>
+  <si>
+    <t>Stato delegante - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneDelegante</t>
   </si>
   <si>
     <t>Provincia comune delegante</t>
@@ -416,6 +434,9 @@
     <t>idProvinciaComuneDelegante</t>
   </si>
   <si>
+    <t>Provincia delegante descrizione</t>
+  </si>
+  <si>
     <t>siglaProvinciaComuneDelegante</t>
   </si>
   <si>
@@ -425,10 +446,22 @@
     <t>comuneDelegante</t>
   </si>
   <si>
-    <t>Comune delegante - Descrizione</t>
+    <t>Comune delegante descrizione</t>
   </si>
   <si>
     <t>nomeComuneDelegante</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato Delegante</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolatoDelegante</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato Delegante - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolatoDelegante</t>
   </si>
   <si>
     <t>Data delega</t>
@@ -871,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2458,7 +2491,7 @@
         <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>85</v>
@@ -2521,19 +2554,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2544,10 +2577,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2556,7 +2589,7 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2567,10 +2600,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2579,7 +2612,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2623,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2646,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2669,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2659,16 +2692,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>145</v>
@@ -2682,19 +2715,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2738,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2761,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2784,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2807,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2797,22 +2830,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>45</v>
@@ -2820,19 +2853,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2843,22 +2876,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>45</v>
@@ -2866,22 +2899,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>45</v>
@@ -2889,22 +2922,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>45</v>
@@ -2912,22 +2945,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>45</v>
@@ -2935,19 +2968,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2958,22 +2991,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>45</v>
@@ -2981,22 +3014,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>45</v>
@@ -3004,22 +3037,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>45</v>
@@ -3027,19 +3060,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -3050,22 +3083,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>45</v>
@@ -3073,19 +3106,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3096,22 +3129,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>45</v>
@@ -3119,22 +3152,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>45</v>
@@ -3142,19 +3175,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3198,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3188,22 +3221,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>45</v>
@@ -3211,19 +3244,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3234,22 +3267,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>45</v>
@@ -3257,19 +3290,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
@@ -3280,19 +3313,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3303,22 +3336,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>45</v>
@@ -3326,22 +3359,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>45</v>
@@ -3349,19 +3382,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3405,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3395,22 +3428,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>45</v>
@@ -3418,19 +3451,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3441,19 +3474,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>18</v>
@@ -3464,22 +3497,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>45</v>
@@ -3487,22 +3520,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>45</v>
@@ -3513,19 +3546,19 @@
         <v>164</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>45</v>
@@ -3536,7 +3569,7 @@
         <v>164</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3545,7 +3578,7 @@
         <v>165</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3559,16 +3592,16 @@
         <v>164</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3615,19 @@
         <v>164</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>45</v>
@@ -3605,16 +3638,16 @@
         <v>164</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3628,19 +3661,19 @@
         <v>164</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>45</v>
@@ -3648,22 +3681,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>45</v>
@@ -3671,22 +3704,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>45</v>
@@ -3694,19 +3727,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3717,22 +3750,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>45</v>
@@ -3740,22 +3773,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>45</v>
@@ -3763,19 +3796,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3786,19 +3819,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3809,19 +3842,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3832,22 +3865,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>45</v>
@@ -3855,19 +3888,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3878,19 +3911,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>18</v>
@@ -3901,22 +3934,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>45</v>
@@ -3924,22 +3957,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>45</v>
@@ -3947,22 +3980,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>45</v>
@@ -3970,19 +4003,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3993,19 +4026,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -4016,19 +4049,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -4039,22 +4072,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>45</v>
@@ -4062,22 +4095,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>45</v>
@@ -4085,22 +4118,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>45</v>
@@ -4108,19 +4141,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>18</v>
@@ -4131,3889 +4164,4165 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E237" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E247" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E299" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E314" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="F314" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C310" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E310" s="2" t="s">
+      <c r="C318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E318" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F310" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>262</v>
+      <c r="F318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="277">
   <si>
     <t>Sezione</t>
   </si>
@@ -695,13 +695,16 @@
     <t>Segretario comunale</t>
   </si>
   <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
+  </si>
+  <si>
     <t>evento.datiEventoUnioneCivile.segretarioComunale</t>
   </si>
   <si>
-    <t>Ruolo</t>
-  </si>
-  <si>
-    <t>ruoloSegretario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Impedimento - Unito civilmente 1</t>
@@ -738,12 +741,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -904,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6996,19 +6993,19 @@
         <v>226</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>45</v>
@@ -7019,19 +7016,19 @@
         <v>226</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>45</v>
@@ -7042,16 +7039,16 @@
         <v>226</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -7062,1267 +7059,1773 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="E305" s="2" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>262</v>
+        <v>106</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="C342" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E344" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F322" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G322" s="2" t="s">
-        <v>273</v>
+      <c r="F344" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="279">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -901,7 +907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H344"/>
+  <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2511,7 +2517,7 @@
         <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>85</v>
@@ -2574,19 +2580,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2597,7 +2603,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>136</v>
@@ -2620,13 +2626,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>73</v>
@@ -2643,7 +2649,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>140</v>
@@ -2666,7 +2672,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>142</v>
@@ -2689,7 +2695,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>144</v>
@@ -2712,7 +2718,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>146</v>
@@ -2735,7 +2741,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>148</v>
@@ -2758,13 +2764,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>73</v>
@@ -2781,7 +2787,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>152</v>
@@ -2804,19 +2810,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2856,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2879,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2896,16 +2902,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>161</v>
@@ -2919,19 +2925,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2942,22 +2948,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>45</v>
@@ -2965,22 +2971,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>45</v>
@@ -2988,22 +2994,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>45</v>
@@ -3011,16 +3017,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>161</v>
@@ -3037,7 +3043,7 @@
         <v>164</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -3046,10 +3052,10 @@
         <v>165</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>45</v>
@@ -3057,22 +3063,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>45</v>
@@ -3080,19 +3086,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3201,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3218,22 +3224,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>45</v>
@@ -3241,22 +3247,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>45</v>
@@ -3264,22 +3270,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>45</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
@@ -3310,22 +3316,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>45</v>
@@ -3333,19 +3339,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3362,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3379,22 +3385,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>45</v>
@@ -3402,19 +3408,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3425,19 +3431,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>18</v>
@@ -3448,19 +3454,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3471,19 +3477,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>18</v>
@@ -3494,22 +3500,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>45</v>
@@ -3517,22 +3523,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>45</v>
@@ -3540,22 +3546,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>45</v>
@@ -3563,19 +3569,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3586,19 +3592,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3609,22 +3615,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>45</v>
@@ -3632,19 +3638,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3661,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>18</v>
@@ -3678,22 +3684,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>45</v>
@@ -3701,22 +3707,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>45</v>
@@ -3724,22 +3730,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>45</v>
@@ -3747,19 +3753,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3770,19 +3776,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3793,19 +3799,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3816,19 +3822,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3839,19 +3845,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3862,22 +3868,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>45</v>
@@ -3885,19 +3891,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3908,19 +3914,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>18</v>
@@ -3931,22 +3937,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>45</v>
@@ -3954,22 +3960,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>45</v>
@@ -3977,22 +3983,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>45</v>
@@ -4000,19 +4006,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -4023,19 +4029,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -4046,22 +4052,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>45</v>
@@ -4069,22 +4075,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>45</v>
@@ -4092,22 +4098,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>45</v>
@@ -4115,22 +4121,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>45</v>
@@ -4138,19 +4144,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>18</v>
@@ -4161,19 +4167,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -4184,22 +4190,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>45</v>
@@ -4207,22 +4213,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>45</v>
@@ -4230,19 +4236,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4253,22 +4259,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>45</v>
@@ -4276,19 +4282,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4299,22 +4305,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>45</v>
@@ -4325,7 +4331,7 @@
         <v>177</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
@@ -4334,13 +4340,13 @@
         <v>178</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150">
@@ -4348,22 +4354,22 @@
         <v>177</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151">
@@ -4371,7 +4377,7 @@
         <v>177</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
@@ -4380,2790 +4386,2790 @@
         <v>178</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="E174" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E197" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="E199" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="E200" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="E221" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="E222" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="E224" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="E226" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="E245" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E246" s="2" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E247" s="2" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E248" s="2" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E249" s="2" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E250" s="2" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E251" s="2" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E254" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="2" t="s">
+      <c r="F259" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E260" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
@@ -7174,22 +7180,22 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>45</v>
@@ -7197,19 +7203,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
@@ -7220,19 +7226,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
@@ -7243,19 +7249,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
@@ -7266,19 +7272,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
@@ -7289,19 +7295,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
@@ -7312,19 +7318,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
@@ -7335,19 +7341,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
@@ -7358,19 +7364,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
@@ -7381,19 +7387,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
@@ -7404,19 +7410,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
@@ -7427,19 +7433,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
@@ -7450,19 +7456,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
@@ -7473,19 +7479,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
@@ -7496,19 +7502,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
@@ -7519,19 +7525,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7542,19 +7548,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
@@ -7565,539 +7571,539 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E290" s="2" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E291" s="2" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E292" s="2" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E293" s="2" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E294" s="2" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E295" s="2" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E296" s="2" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E297" s="2" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G306" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G306" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G308" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>12</v>
@@ -8106,605 +8112,605 @@
         <v>240</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F330" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="G330" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F332" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G332" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F334" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B334" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G334" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F335" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G335" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
@@ -8715,22 +8721,22 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>45</v>
@@ -8738,10 +8744,10 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
@@ -8750,7 +8756,7 @@
         <v>73</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
@@ -8761,71 +8767,278 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="C350" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D344" s="2" t="s">
+      <c r="C352" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E344" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F344" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G344" s="2" t="s">
+      <c r="B353" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D353" s="2" t="s">
         <v>272</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="306">
   <si>
     <t>Sezione</t>
   </si>
@@ -633,6 +633,87 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge1</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge2</t>
   </si>
   <si>
     <t>Legge regime patrimoniale</t>
@@ -907,7 +988,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H359"/>
+  <dimension ref="A1:H383"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6953,867 +7034,867 @@
         <v>207</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
@@ -7824,22 +7905,22 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>42</v>
@@ -7847,19 +7928,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
@@ -7870,1313 +7951,1865 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B356" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D356" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C356" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E356" s="2" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G357" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F357" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G358" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E358" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F358" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B359" s="2" t="s">
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E359" s="2" t="s">
+      <c r="C371" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E371" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F359" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>274</v>
+      <c r="F371" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -9153,7 +9153,7 @@
         <v>106</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>268</v>
@@ -9176,7 +9176,7 @@
         <v>108</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>268</v>
@@ -9185,7 +9185,7 @@
         <v>109</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>270</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="308">
   <si>
     <t>Sezione</t>
   </si>
@@ -930,6 +930,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -988,7 +994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H383"/>
+  <dimension ref="A1:H384"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9812,6 +9818,29 @@
         <v>301</v>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="312">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -994,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H384"/>
+  <dimension ref="A1:H402"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2581,7 +2593,7 @@
         <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>82</v>
@@ -2604,7 +2616,7 @@
         <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>82</v>
@@ -2644,19 +2656,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2679,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2690,13 +2702,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>70</v>
@@ -2713,13 +2725,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>70</v>
@@ -2736,7 +2748,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>143</v>
@@ -2759,7 +2771,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>145</v>
@@ -2782,7 +2794,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>147</v>
@@ -2805,7 +2817,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>149</v>
@@ -2828,13 +2840,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>70</v>
@@ -2851,13 +2863,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>70</v>
@@ -2874,19 +2886,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2897,16 +2909,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>158</v>
@@ -2920,19 +2932,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2955,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2966,19 +2978,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2989,19 +3001,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -3012,22 +3024,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>42</v>
@@ -3035,19 +3047,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3070,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>19</v>
@@ -3081,22 +3093,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>42</v>
@@ -3104,22 +3116,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>42</v>
@@ -3127,22 +3139,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>42</v>
@@ -3150,22 +3162,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>42</v>
@@ -3173,19 +3185,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3196,19 +3208,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3219,19 +3231,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3242,19 +3254,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3265,22 +3277,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>42</v>
@@ -3288,22 +3300,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>42</v>
@@ -3311,19 +3323,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3334,22 +3346,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>42</v>
@@ -3357,22 +3369,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>42</v>
@@ -3380,22 +3392,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>42</v>
@@ -3403,19 +3415,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3426,19 +3438,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
@@ -3449,19 +3461,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>18</v>
@@ -3472,19 +3484,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3495,22 +3507,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>42</v>
@@ -3518,22 +3530,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>42</v>
@@ -3541,19 +3553,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>18</v>
@@ -3564,19 +3576,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3587,19 +3599,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>18</v>
@@ -3610,22 +3622,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>42</v>
@@ -3633,22 +3645,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>42</v>
@@ -3656,19 +3668,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3679,22 +3691,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>42</v>
@@ -3702,22 +3714,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>42</v>
@@ -3725,22 +3737,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>42</v>
@@ -3748,19 +3760,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3771,22 +3783,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>42</v>
@@ -3794,22 +3806,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>42</v>
@@ -3817,22 +3829,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>42</v>
@@ -3840,19 +3852,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3863,22 +3875,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>42</v>
@@ -3886,22 +3898,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>42</v>
@@ -3909,19 +3921,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3932,19 +3944,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3955,19 +3967,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3978,22 +3990,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>42</v>
@@ -4001,22 +4013,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>42</v>
@@ -4024,22 +4036,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>42</v>
@@ -4047,22 +4059,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>42</v>
@@ -4070,19 +4082,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -4093,19 +4105,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -4116,19 +4128,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>18</v>
@@ -4139,22 +4151,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>42</v>
@@ -4162,22 +4174,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>42</v>
@@ -4185,19 +4197,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>18</v>
@@ -4208,19 +4220,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -4231,22 +4243,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>42</v>
@@ -4254,22 +4266,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>42</v>
@@ -4277,19 +4289,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>18</v>
@@ -4300,22 +4312,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>42</v>
@@ -4323,22 +4335,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>42</v>
@@ -4346,19 +4358,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4369,22 +4381,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>42</v>
@@ -4392,19 +4404,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4415,19 +4427,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>18</v>
@@ -4438,22 +4450,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>42</v>
@@ -4461,22 +4473,22 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>42</v>
@@ -4484,2905 +4496,2905 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E256" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E277" s="2" t="s">
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>216</v>
@@ -7391,7 +7403,7 @@
         <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>217</v>
@@ -7400,12 +7412,12 @@
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>218</v>
@@ -7414,7 +7426,7 @@
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>219</v>
@@ -7423,12 +7435,12 @@
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>220</v>
@@ -7437,113 +7449,113 @@
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>228</v>
@@ -7552,7 +7564,7 @@
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>229</v>
@@ -7561,12 +7573,12 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>230</v>
@@ -7575,7 +7587,7 @@
         <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>231</v>
@@ -7584,645 +7596,645 @@
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C312" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D313" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E313" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
@@ -8233,22 +8245,22 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>42</v>
@@ -8256,19 +8268,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
@@ -8279,19 +8291,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
@@ -8302,19 +8314,19 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
@@ -8325,19 +8337,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
@@ -8348,19 +8360,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
@@ -8371,19 +8383,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
@@ -8394,19 +8406,19 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
@@ -8417,19 +8429,19 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
@@ -8440,19 +8452,19 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
@@ -8463,19 +8475,19 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
@@ -8486,19 +8498,19 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
@@ -8509,554 +8521,554 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="351">
@@ -9064,7 +9076,7 @@
         <v>267</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>12</v>
@@ -9073,13 +9085,13 @@
         <v>268</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="F351" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G351" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="G351" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="352">
@@ -9087,7 +9099,7 @@
         <v>267</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>12</v>
@@ -9096,13 +9108,13 @@
         <v>268</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="353">
@@ -9110,7 +9122,7 @@
         <v>267</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>12</v>
@@ -9119,13 +9131,13 @@
         <v>268</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="F353" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G353" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="G353" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="354">
@@ -9133,7 +9145,7 @@
         <v>267</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>12</v>
@@ -9142,13 +9154,13 @@
         <v>268</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="F354" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G354" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="355">
@@ -9156,7 +9168,7 @@
         <v>267</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>12</v>
@@ -9165,13 +9177,13 @@
         <v>268</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="356">
@@ -9179,7 +9191,7 @@
         <v>267</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>12</v>
@@ -9188,13 +9200,13 @@
         <v>268</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F356" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G356" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="357">
@@ -9202,7 +9214,7 @@
         <v>267</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>12</v>
@@ -9211,13 +9223,13 @@
         <v>268</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="F357" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G357" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="358">
@@ -9225,252 +9237,252 @@
         <v>267</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="F358" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G358" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="369">
@@ -9478,22 +9490,22 @@
         <v>271</v>
       </c>
       <c r="B369" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E369" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F369" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F369" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G369" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="370">
@@ -9501,22 +9513,22 @@
         <v>271</v>
       </c>
       <c r="B370" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G370" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F370" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G370" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="371">
@@ -9524,22 +9536,22 @@
         <v>271</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>277</v>
+        <v>106</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="372">
@@ -9547,22 +9559,22 @@
         <v>271</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="373">
@@ -9570,22 +9582,22 @@
         <v>271</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="374">
@@ -9593,22 +9605,22 @@
         <v>271</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="375">
@@ -9616,22 +9628,22 @@
         <v>271</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="376">
@@ -9639,22 +9651,22 @@
         <v>271</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="377">
@@ -9662,22 +9674,22 @@
         <v>271</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="378">
@@ -9685,22 +9697,22 @@
         <v>271</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="379">
@@ -9708,22 +9720,22 @@
         <v>271</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>293</v>
+        <v>122</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="380">
@@ -9731,114 +9743,528 @@
         <v>271</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>295</v>
+        <v>124</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>305</v>
+        <v>131</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="C397" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E384" s="2" t="s">
+      <c r="C400" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E400" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F384" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G384" s="2" t="s">
+      <c r="F400" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="s">
         <v>301</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
